--- a/処理流れ.xlsx
+++ b/処理流れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isola\Documents\Practice\CountDownTimer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38096E7-AA29-47CC-8C49-2C6AB796F7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CBA6A7-225A-4370-8EB3-F626701C9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>処理の流れ</t>
     <rPh sb="0" eb="2">
@@ -378,6 +378,85 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイマー動いてるときの時間更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer自体はModelに持たせてる</t>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timerが1秒経過を検知</t>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間0秒</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間表示更新</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒ごとにTickのイベントおこるからController無視してModelが勝手にViewを更新しまくる</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー0秒になったよーとかも勝手にM-Vでやる</t>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3633,13 +3712,10 @@
             </a:rPr>
             <a:t>TimerModel</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（シングルトン）</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3706,17 +3782,6 @@
             </a:rPr>
             <a:t>TimerController</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（シングルトン）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5120,13 +5185,10 @@
             </a:rPr>
             <a:t>TimerModel</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（シングルトン）</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5193,17 +5255,6 @@
             </a:rPr>
             <a:t>TimerController</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（シングルトン）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5849,7 +5900,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5868,7 +5919,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="5248275" y="5476875"/>
-          <a:ext cx="2762250" cy="0"/>
+          <a:ext cx="5524500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6029,6 +6080,1433 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057F8709-1965-4355-AAF6-3449819856BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6629400" y="5715000"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB82033-8DF8-4AB7-B73B-10B5E925680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="2619375"/>
+          <a:ext cx="2209800" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MainForm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A2E21A-1168-4BAC-ABE0-9CEFC267086A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="2619375"/>
+          <a:ext cx="2209800" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TimerModel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F310802A-094C-44DE-95E3-84122E588B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905626" y="2619376"/>
+          <a:ext cx="2209799" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TimerController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B99AE99-CE61-4B67-B70B-E9B1382EBFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="3095625"/>
+          <a:ext cx="0" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52563699-A71F-40AE-9AAF-66F629E5248E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010526" y="3095625"/>
+          <a:ext cx="0" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9396E05-1F78-4116-8E8F-9E03091FC61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="3095625"/>
+          <a:ext cx="0" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1BD215-0826-4223-8BAA-D10701A1D938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381126" y="2619375"/>
+          <a:ext cx="2209799" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒経過ごと</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>244927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAAA543-7F61-4674-A076-7C34E70B72AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3095624"/>
+          <a:ext cx="0" cy="3807278"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92422402-3BD3-4EE1-AE86-EBF0302DA3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3810000"/>
+          <a:ext cx="8286750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151F2C88-7F82-47AD-A8A1-B3DA5DD9CDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="4524375"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2AE644-9E9A-4756-BDEE-2D336DC48D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="5238750"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41492046-EB5C-427A-BFE9-9961AD1A44D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12153900" y="4524375"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3E9171-D864-4C84-BD71-0CED0D86415C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5248275" y="5000625"/>
+          <a:ext cx="5524500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CB4F03-6851-4562-9028-A189D3261391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="5715000"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8A1948-8982-4C1A-95A1-0A9E0A485CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="6429375"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A99CE41-ED63-47F9-9358-9717D1BE563A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6629400" y="5715000"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551902EE-9AC1-1418-D411-64E1ADBD4938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="5476875"/>
+          <a:ext cx="11877675" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A21B581-D68B-4D17-B1C6-372E7CE92B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="4524375"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECE7B7A-8061-41BD-96F5-6D17B1B31FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="5238750"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAD3996-5762-4C54-9ABF-ED7AD7AFCED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12153900" y="4524375"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369D7BAD-333A-43A4-83AA-1DD24E7958CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5248275" y="6905625"/>
+          <a:ext cx="5524500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C0E2FF-0629-4657-A7DA-2D147074561F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="5715000"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89FE895-65E2-4A69-BFED-6A19139C76CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="6429375"/>
+          <a:ext cx="1381125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0001CC70-A99F-45C7-A3DC-0C7011FD9C4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6534,7 +8012,7 @@
   <dimension ref="B2:AO26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T38" sqref="A1:XFD1048576"/>
+      <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6605,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68F5E45-E33C-443D-8C02-2E2AD55C1D46}">
   <dimension ref="B2:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22:Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6675,15 +8153,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD23DE6-D3C1-45D6-AD8B-255417A20B26}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AO33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:41">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:41">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41">
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41">
+      <c r="AO15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:41">
+      <c r="W17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:41">
+      <c r="U21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:41">
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="4:41">
+      <c r="AO28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="4:41">
+      <c r="W30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21">
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>